--- a/pred_ohlcv/54_21/2020-01-23 AOA ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-23 AOA ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>-5290774.743860556</v>
       </c>
       <c r="H2">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -600,7 +600,7 @@
         <v>1080312.256139444</v>
       </c>
       <c r="H8">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -652,7 +652,7 @@
         <v>4051751.256139444</v>
       </c>
       <c r="H10">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -990,7 +990,7 @@
         <v>5393549.461239443</v>
       </c>
       <c r="H23">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>4577974.461239443</v>
       </c>
       <c r="H24">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>4578252.461239443</v>
       </c>
       <c r="H25">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>4578252.461239443</v>
       </c>
       <c r="H26">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>1150374.461239443</v>
       </c>
       <c r="H27">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>1150374.461239443</v>
       </c>
       <c r="H28">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>1150652.461239443</v>
       </c>
       <c r="H29">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>1150652.461239443</v>
       </c>
       <c r="H30">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>1150652.461239443</v>
       </c>
       <c r="H31">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>-2175603.538760557</v>
       </c>
       <c r="H32">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>-2216846.279160557</v>
       </c>
       <c r="H33">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>-2216568.279160557</v>
       </c>
       <c r="H34">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>-2216568.279160557</v>
       </c>
       <c r="H35">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>-2215193.254960557</v>
       </c>
       <c r="H36">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>-3198741.254960557</v>
       </c>
       <c r="H37">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>-6051600.254960557</v>
       </c>
       <c r="H38">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>-6051600.254960557</v>
       </c>
       <c r="H39">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>-8197487.254960557</v>
       </c>
       <c r="H42">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>-9512087.254960557</v>
       </c>
       <c r="H44">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -3174,7 +3174,7 @@
         <v>-12455552.96109433</v>
       </c>
       <c r="H107">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3408,7 +3408,7 @@
         <v>-12992334.54769433</v>
       </c>
       <c r="H116">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3694,7 +3694,7 @@
         <v>-18583982.85759433</v>
       </c>
       <c r="H127">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -3746,7 +3746,7 @@
         <v>-18584180.76729433</v>
       </c>
       <c r="H129">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -3772,7 +3772,7 @@
         <v>-18564180.76729433</v>
       </c>
       <c r="H130">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -3798,7 +3798,7 @@
         <v>-18398032.35379433</v>
       </c>
       <c r="H131">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -3824,7 +3824,7 @@
         <v>-18391813.29359433</v>
       </c>
       <c r="H132">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -4968,7 +4968,7 @@
         <v>-36549752.14952302</v>
       </c>
       <c r="H176">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -4994,7 +4994,7 @@
         <v>-36554752.14952302</v>
       </c>
       <c r="H177">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -5020,7 +5020,7 @@
         <v>-36559752.14952302</v>
       </c>
       <c r="H178">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -5046,7 +5046,7 @@
         <v>-36821698.31832302</v>
       </c>
       <c r="H179">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -5072,7 +5072,7 @@
         <v>-36842611.92802302</v>
       </c>
       <c r="H180">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -5800,7 +5800,7 @@
         <v>-47965133.687323</v>
       </c>
       <c r="H208">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -5826,7 +5826,7 @@
         <v>-47965419.89232299</v>
       </c>
       <c r="H209">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -5852,7 +5852,7 @@
         <v>-47314464.718123</v>
       </c>
       <c r="H210">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -5930,7 +5930,7 @@
         <v>-50144302.23772299</v>
       </c>
       <c r="H213">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -6164,7 +6164,7 @@
         <v>-54362414.49492299</v>
       </c>
       <c r="H222">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="223" spans="1:8">

--- a/pred_ohlcv/54_21/2020-01-23 AOA ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-23 AOA ohlcv.xlsx
@@ -1120,7 +1120,7 @@
         <v>1150374.461239443</v>
       </c>
       <c r="H28">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>1150652.461239443</v>
       </c>
       <c r="H29">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>1150652.461239443</v>
       </c>
       <c r="H30">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>1150652.461239443</v>
       </c>
       <c r="H31">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>-2175603.538760557</v>
       </c>
       <c r="H32">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>-2216846.279160557</v>
       </c>
       <c r="H33">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>-2216568.279160557</v>
       </c>
       <c r="H34">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -2862,7 +2862,7 @@
         <v>-10608365.26366056</v>
       </c>
       <c r="H95">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -2888,7 +2888,7 @@
         <v>-10920713.55576055</v>
       </c>
       <c r="H96">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -2914,7 +2914,7 @@
         <v>-10920713.55576055</v>
       </c>
       <c r="H97">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -3720,7 +3720,7 @@
         <v>-18569344.51859433</v>
       </c>
       <c r="H128">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -4968,7 +4968,7 @@
         <v>-36549752.14952302</v>
       </c>
       <c r="H176">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -4994,7 +4994,7 @@
         <v>-36554752.14952302</v>
       </c>
       <c r="H177">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -5020,7 +5020,7 @@
         <v>-36559752.14952302</v>
       </c>
       <c r="H178">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -5046,7 +5046,7 @@
         <v>-36821698.31832302</v>
       </c>
       <c r="H179">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -5072,7 +5072,7 @@
         <v>-36842611.92802302</v>
       </c>
       <c r="H180">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -5852,7 +5852,7 @@
         <v>-47314464.718123</v>
       </c>
       <c r="H210">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -5930,7 +5930,7 @@
         <v>-50144302.23772299</v>
       </c>
       <c r="H213">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -6164,7 +6164,7 @@
         <v>-54362414.49492299</v>
       </c>
       <c r="H222">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="223" spans="1:8">
